--- a/Sample-Output-Data/Core-and-refined-models/Excel-models/iPAE1146_TnCore_model.xlsx
+++ b/Sample-Output-Data/Core-and-refined-models/Excel-models/iPAE1146_TnCore_model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgedicenzo/Downloads/TnCore_benchmarking/TnCore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgedicenzo/Downloads/COBRA_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962F3B0-A9F4-AD48-A806-5F386D19F6A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBBABB-9F87-D448-BD22-A3B67C4BA0E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -8358,9 +8358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
